--- a/lecture_list.xlsx
+++ b/lecture_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\수강신청공지\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeokyunghyun\Desktop\2019136081 여경현\4학년 1학기\졸업 설계\최종 코드\Graduation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7655,7 +7655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7733,7 +7733,6 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -8085,11 +8084,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD795"/>
+  <dimension ref="A1:AD789"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A773" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A790" sqref="A790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -73260,9 +73259,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="795" spans="1:30" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="U795" s="27"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:AD789"/>
   <phoneticPr fontId="9" type="noConversion"/>
